--- a/empinfo/YungMi.xlsx
+++ b/empinfo/YungMi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>desk</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -483,15 +483,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>refrigerator</t>
+          <t>copier</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -552,21 +552,6 @@
       <c r="C8" t="inlineStr">
         <is>
           <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>snack</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
